--- a/data/pca/factorExposure/factorExposure_2016-11-03.xlsx
+++ b/data/pca/factorExposure/factorExposure_2016-11-03.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,15 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +698,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:G104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,52 +714,88 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B2">
-        <v>0.01849026959056069</v>
+        <v>0.01549114856983182</v>
       </c>
       <c r="C2">
-        <v>-0.0457865486068584</v>
+        <v>-0.04076958939721202</v>
       </c>
       <c r="D2">
-        <v>-0.02665228015020859</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>-0.05798375469847283</v>
+      </c>
+      <c r="E2">
+        <v>-0.02643194590122075</v>
+      </c>
+      <c r="F2">
+        <v>-0.09361638062661638</v>
+      </c>
+      <c r="G2">
+        <v>-0.0287394357912129</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B3">
-        <v>0.05468828976913195</v>
+        <v>0.03333632762426602</v>
       </c>
       <c r="C3">
-        <v>-0.09655867272055971</v>
+        <v>-0.08373858560110128</v>
       </c>
       <c r="D3">
-        <v>-0.05341678197281773</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>-0.1017430338111491</v>
+      </c>
+      <c r="E3">
+        <v>-0.04093870859653146</v>
+      </c>
+      <c r="F3">
+        <v>-0.06010451400271363</v>
+      </c>
+      <c r="G3">
+        <v>0.06717992982581179</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B4">
-        <v>0.06299539241411969</v>
+        <v>0.05858437733869112</v>
       </c>
       <c r="C4">
-        <v>-0.0629352419917403</v>
+        <v>-0.06049049474724243</v>
       </c>
       <c r="D4">
-        <v>-0.009837914845584505</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>-0.0570015437737714</v>
+      </c>
+      <c r="E4">
+        <v>-0.021849484450082</v>
+      </c>
+      <c r="F4">
+        <v>-0.09163845440596939</v>
+      </c>
+      <c r="G4">
+        <v>0.03980086077190109</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,164 +806,272 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B6">
-        <v>0.02788159809631086</v>
+        <v>0.03529546292282255</v>
       </c>
       <c r="C6">
-        <v>-0.04389419223615686</v>
+        <v>-0.03486049986749017</v>
       </c>
       <c r="D6">
-        <v>-0.01688885578222545</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>-0.06549436794346884</v>
+      </c>
+      <c r="E6">
+        <v>-0.03320899253735835</v>
+      </c>
+      <c r="F6">
+        <v>-0.08484783341963341</v>
+      </c>
+      <c r="G6">
+        <v>0.01855004832675741</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B7">
-        <v>0.02272031975268931</v>
+        <v>0.0218479987307782</v>
       </c>
       <c r="C7">
-        <v>-0.03764251983292229</v>
+        <v>-0.03362148121158244</v>
       </c>
       <c r="D7">
-        <v>0.01380197750059148</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>-0.03286663848738982</v>
+      </c>
+      <c r="E7">
+        <v>-0.009774959329918065</v>
+      </c>
+      <c r="F7">
+        <v>-0.119814591383128</v>
+      </c>
+      <c r="G7">
+        <v>0.005970034258801956</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B8">
-        <v>0.0001377133939757206</v>
+        <v>0.005243332704016786</v>
       </c>
       <c r="C8">
-        <v>-0.01311924704397255</v>
+        <v>-0.01993731183991933</v>
       </c>
       <c r="D8">
-        <v>-0.01965044973817386</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>-0.03651991579494712</v>
+      </c>
+      <c r="E8">
+        <v>-0.01879847718992739</v>
+      </c>
+      <c r="F8">
+        <v>-0.06327540200292894</v>
+      </c>
+      <c r="G8">
+        <v>0.009373657717888064</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B9">
-        <v>0.02860099511527549</v>
+        <v>0.03699850242639235</v>
       </c>
       <c r="C9">
-        <v>-0.04219945538001989</v>
+        <v>-0.04731760450599863</v>
       </c>
       <c r="D9">
-        <v>-0.005059615802900459</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>-0.04087095445592056</v>
+      </c>
+      <c r="E9">
+        <v>-0.01719131823227762</v>
+      </c>
+      <c r="F9">
+        <v>-0.09692340634867651</v>
+      </c>
+      <c r="G9">
+        <v>0.02286341623324288</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B10">
-        <v>0.07454009034102606</v>
+        <v>0.0956991364881825</v>
       </c>
       <c r="C10">
-        <v>0.1955635255364173</v>
+        <v>0.1910706669515052</v>
       </c>
       <c r="D10">
-        <v>-0.01402691647704926</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>-0.001951076453690617</v>
+      </c>
+      <c r="E10">
+        <v>-0.03715100761429786</v>
+      </c>
+      <c r="F10">
+        <v>-0.0449713850974002</v>
+      </c>
+      <c r="G10">
+        <v>0.004421927739587136</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B11">
-        <v>0.04291643133068383</v>
+        <v>0.03691944411407599</v>
       </c>
       <c r="C11">
-        <v>-0.05325772595294001</v>
+        <v>-0.05013122346738601</v>
       </c>
       <c r="D11">
-        <v>0.005286671444467572</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>-0.02908485757700234</v>
+      </c>
+      <c r="E11">
+        <v>0.008336057444829174</v>
+      </c>
+      <c r="F11">
+        <v>-0.06948253918817654</v>
+      </c>
+      <c r="G11">
+        <v>0.01333389347921812</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B12">
-        <v>0.03663323373988936</v>
+        <v>0.03755076159345449</v>
       </c>
       <c r="C12">
-        <v>-0.04428543470704362</v>
+        <v>-0.04531233407313028</v>
       </c>
       <c r="D12">
-        <v>0.00613884061513876</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>-0.02232735842336594</v>
+      </c>
+      <c r="E12">
+        <v>-0.0001721776206239962</v>
+      </c>
+      <c r="F12">
+        <v>-0.07126493398835311</v>
+      </c>
+      <c r="G12">
+        <v>0.008839049476297942</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B13">
-        <v>0.009699432158341736</v>
+        <v>0.01304048307315208</v>
       </c>
       <c r="C13">
-        <v>-0.04127941951008347</v>
+        <v>-0.04064502794028811</v>
       </c>
       <c r="D13">
-        <v>-0.0186496543107276</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>-0.06406092468684062</v>
+      </c>
+      <c r="E13">
+        <v>-0.03662663299539311</v>
+      </c>
+      <c r="F13">
+        <v>-0.1291364698708409</v>
+      </c>
+      <c r="G13">
+        <v>0.01861332607305879</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B14">
-        <v>0.007592972278998796</v>
+        <v>0.006221041690226092</v>
       </c>
       <c r="C14">
-        <v>-0.03299436689727105</v>
+        <v>-0.02846911275999048</v>
       </c>
       <c r="D14">
-        <v>0.01252548725959659</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>-0.02896996189606131</v>
+      </c>
+      <c r="E14">
+        <v>-0.009840900794184825</v>
+      </c>
+      <c r="F14">
+        <v>-0.1009816428204161</v>
+      </c>
+      <c r="G14">
+        <v>-0.00851233280237676</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B15">
-        <v>0</v>
+        <v>-0.001154649433511515</v>
       </c>
       <c r="C15">
-        <v>0</v>
+        <v>-0.0008996913391342514</v>
       </c>
       <c r="D15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>-0.001526295869366315</v>
+      </c>
+      <c r="E15">
+        <v>0.0006080213957469502</v>
+      </c>
+      <c r="F15">
+        <v>-0.0004458590234349105</v>
+      </c>
+      <c r="G15">
+        <v>-0.001048001757078379</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B16">
-        <v>0.03615894134298022</v>
+        <v>0.03418041607214967</v>
       </c>
       <c r="C16">
-        <v>-0.03978707791696291</v>
+        <v>-0.04363772927857595</v>
       </c>
       <c r="D16">
-        <v>-0.001722454768224259</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>-0.02626802807696982</v>
+      </c>
+      <c r="E16">
+        <v>-0.006522034123474187</v>
+      </c>
+      <c r="F16">
+        <v>-0.07401150250079182</v>
+      </c>
+      <c r="G16">
+        <v>-0.0008217332539579251</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -929,10 +1082,19 @@
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -943,122 +1105,203 @@
       <c r="D18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B19">
-        <v>0.03098012559937518</v>
+        <v>0.01846273767893181</v>
       </c>
       <c r="C19">
-        <v>-0.06040226068970408</v>
+        <v>-0.0495537155511424</v>
       </c>
       <c r="D19">
-        <v>-0.05248159618354326</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>-0.1039345949469031</v>
+      </c>
+      <c r="E19">
+        <v>-0.04758697642265116</v>
+      </c>
+      <c r="F19">
+        <v>-0.125309092157883</v>
+      </c>
+      <c r="G19">
+        <v>-0.01742132720873851</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B20">
-        <v>0.01510994217838594</v>
+        <v>0.01448795432811972</v>
       </c>
       <c r="C20">
-        <v>-0.04327460427364489</v>
+        <v>-0.03847424989402998</v>
       </c>
       <c r="D20">
-        <v>-0.02501930058155059</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>-0.04641606730967803</v>
+      </c>
+      <c r="E20">
+        <v>-0.04274924030250393</v>
+      </c>
+      <c r="F20">
+        <v>-0.09782822667206129</v>
+      </c>
+      <c r="G20">
+        <v>0.002350400518528219</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B21">
-        <v>0.009273995993212025</v>
+        <v>0.007827231687562948</v>
       </c>
       <c r="C21">
-        <v>-0.04739445688707027</v>
+        <v>-0.04230152796165875</v>
       </c>
       <c r="D21">
-        <v>-0.03825895161678405</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>-0.0712767545303285</v>
+      </c>
+      <c r="E21">
+        <v>-0.03895747788436894</v>
+      </c>
+      <c r="F21">
+        <v>-0.1434979232827472</v>
+      </c>
+      <c r="G21">
+        <v>0.002466848906339896</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B22">
-        <v>0</v>
+        <v>0.003597375265654849</v>
       </c>
       <c r="C22">
-        <v>0</v>
+        <v>-0.01463227886565545</v>
       </c>
       <c r="D22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>-0.02957725994900195</v>
+      </c>
+      <c r="E22">
+        <v>-0.00367347701630259</v>
+      </c>
+      <c r="F22">
+        <v>-0.01777421166095403</v>
+      </c>
+      <c r="G22">
+        <v>0.03510032694651397</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B23">
-        <v>0</v>
+        <v>0.003647012338319189</v>
       </c>
       <c r="C23">
-        <v>0</v>
+        <v>-0.01459834772787301</v>
       </c>
       <c r="D23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>-0.02930381318619166</v>
+      </c>
+      <c r="E23">
+        <v>-0.003951599034588573</v>
+      </c>
+      <c r="F23">
+        <v>-0.01748961886694839</v>
+      </c>
+      <c r="G23">
+        <v>0.03509755228917454</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B24">
-        <v>0.03067318066682167</v>
+        <v>0.03283785058437363</v>
       </c>
       <c r="C24">
-        <v>-0.04589653199974638</v>
+        <v>-0.05033468032609112</v>
       </c>
       <c r="D24">
-        <v>0.006199022155570589</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>-0.02400869032163861</v>
+      </c>
+      <c r="E24">
+        <v>-0.001375264978436356</v>
+      </c>
+      <c r="F24">
+        <v>-0.07950488915793429</v>
+      </c>
+      <c r="G24">
+        <v>0.006176506782052011</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B25">
-        <v>0.04764138187435743</v>
+        <v>0.04306146978177519</v>
       </c>
       <c r="C25">
-        <v>-0.0567427831387458</v>
+        <v>-0.05681311653040152</v>
       </c>
       <c r="D25">
-        <v>0.01635161018226092</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>-0.02186632768139194</v>
+      </c>
+      <c r="E25">
+        <v>0.00169531228308709</v>
+      </c>
+      <c r="F25">
+        <v>-0.08167035987568014</v>
+      </c>
+      <c r="G25">
+        <v>0.02230281675608271</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B26">
-        <v>0.01000243576644845</v>
+        <v>0.01455241242128112</v>
       </c>
       <c r="C26">
-        <v>-0.01643575101555523</v>
+        <v>-0.01395726553203752</v>
       </c>
       <c r="D26">
-        <v>-0.005812822754830922</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>-0.02330152286106106</v>
+      </c>
+      <c r="E26">
+        <v>-0.01233524574203449</v>
+      </c>
+      <c r="F26">
+        <v>-0.08125920047249657</v>
+      </c>
+      <c r="G26">
+        <v>-0.01411964329063218</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,108 +1312,180 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B28">
-        <v>0.08876781411256031</v>
+        <v>0.1285594331553689</v>
       </c>
       <c r="C28">
-        <v>0.2239215175158572</v>
+        <v>0.2406928558441082</v>
       </c>
       <c r="D28">
-        <v>-0.009689383298289287</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>0.01571582660829382</v>
+      </c>
+      <c r="E28">
+        <v>-0.0369111903243291</v>
+      </c>
+      <c r="F28">
+        <v>-0.05847992346865119</v>
+      </c>
+      <c r="G28">
+        <v>0.01510442131231345</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B29">
-        <v>0.01198545537223323</v>
+        <v>0.007321584116208145</v>
       </c>
       <c r="C29">
-        <v>-0.02544230260513597</v>
+        <v>-0.02429636631068272</v>
       </c>
       <c r="D29">
-        <v>0.01307370454230747</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>-0.01855391198593939</v>
+      </c>
+      <c r="E29">
+        <v>-0.01348514456816655</v>
+      </c>
+      <c r="F29">
+        <v>-0.09205052936106549</v>
+      </c>
+      <c r="G29">
+        <v>0.00420103190350274</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B30">
-        <v>0.04477548224949525</v>
+        <v>0.03980229790792398</v>
       </c>
       <c r="C30">
-        <v>-0.07000129049089893</v>
+        <v>-0.05900528575805701</v>
       </c>
       <c r="D30">
-        <v>-0.01204990180342851</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>-0.09976131296625051</v>
+      </c>
+      <c r="E30">
+        <v>-0.0006299122550017387</v>
+      </c>
+      <c r="F30">
+        <v>-0.1115833641463543</v>
+      </c>
+      <c r="G30">
+        <v>-0.01756894131615411</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B31">
-        <v>0.04393763366641365</v>
+        <v>0.05614651182793686</v>
       </c>
       <c r="C31">
-        <v>-0.03304332266647352</v>
+        <v>-0.04597599509125064</v>
       </c>
       <c r="D31">
-        <v>0.01060583676601456</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>0.001251132097106288</v>
+      </c>
+      <c r="E31">
+        <v>-0.03514535156709699</v>
+      </c>
+      <c r="F31">
+        <v>-0.09066760927111286</v>
+      </c>
+      <c r="G31">
+        <v>0.04133223253106844</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B32">
-        <v>0.007454038818912738</v>
+        <v>0.0036242374390006</v>
       </c>
       <c r="C32">
-        <v>-0.0398977116966724</v>
+        <v>-0.03087411097843734</v>
       </c>
       <c r="D32">
-        <v>-0.02220417681451257</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>-0.04939695768347104</v>
+      </c>
+      <c r="E32">
+        <v>-0.002172615116253556</v>
+      </c>
+      <c r="F32">
+        <v>-0.07320660789760883</v>
+      </c>
+      <c r="G32">
+        <v>-0.009898387028685654</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B33">
-        <v>0.02991717708943242</v>
+        <v>0.02551899349181963</v>
       </c>
       <c r="C33">
-        <v>-0.05985566447149539</v>
+        <v>-0.05075840872994773</v>
       </c>
       <c r="D33">
-        <v>-0.01905813084368494</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>-0.07887907310439511</v>
+      </c>
+      <c r="E33">
+        <v>-0.01873618082114332</v>
+      </c>
+      <c r="F33">
+        <v>-0.1414027878629435</v>
+      </c>
+      <c r="G33">
+        <v>0.01987753854466922</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B34">
-        <v>0.05270968453411777</v>
+        <v>0.04227813224256125</v>
       </c>
       <c r="C34">
-        <v>-0.05454897356334728</v>
+        <v>-0.0623869758096394</v>
       </c>
       <c r="D34">
-        <v>0.01160835979703933</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>-0.0296766692145856</v>
+      </c>
+      <c r="E34">
+        <v>0.0162859597956033</v>
+      </c>
+      <c r="F34">
+        <v>-0.07661894152962445</v>
+      </c>
+      <c r="G34">
+        <v>0.009071018287068435</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1181,24 +1496,42 @@
       <c r="D35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:4">
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B36">
-        <v>0.00916096906924844</v>
+        <v>0.01519088757132043</v>
       </c>
       <c r="C36">
-        <v>-0.01244315545157028</v>
+        <v>-0.009510415449102678</v>
       </c>
       <c r="D36">
-        <v>0.0006846131921840101</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>-0.02474705618921537</v>
+      </c>
+      <c r="E36">
+        <v>-0.01709581904661743</v>
+      </c>
+      <c r="F36">
+        <v>-0.09191023634135559</v>
+      </c>
+      <c r="G36">
+        <v>0.01048624742020367</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1209,108 +1542,180 @@
       <c r="D37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B38">
-        <v>0.03512834314110947</v>
+        <v>0.02719410002012996</v>
       </c>
       <c r="C38">
-        <v>-0.0239869742459381</v>
+        <v>-0.02252493972010374</v>
       </c>
       <c r="D38">
-        <v>0.005743878007062045</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>-0.02436546964758041</v>
+      </c>
+      <c r="E38">
+        <v>-0.01869130824659535</v>
+      </c>
+      <c r="F38">
+        <v>-0.07932244206692088</v>
+      </c>
+      <c r="G38">
+        <v>0.008085378308778632</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B39">
-        <v>0.04166904339936283</v>
+        <v>0.03846307192003206</v>
       </c>
       <c r="C39">
-        <v>-0.07145252536225778</v>
+        <v>-0.06525232958656789</v>
       </c>
       <c r="D39">
-        <v>-0.009882643968520791</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>-0.04700633149830161</v>
+      </c>
+      <c r="E39">
+        <v>0.002778655798811218</v>
+      </c>
+      <c r="F39">
+        <v>-0.0964803081054095</v>
+      </c>
+      <c r="G39">
+        <v>-0.01845777814822994</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B40">
-        <v>0.01848364010982271</v>
+        <v>0.01796255351232262</v>
       </c>
       <c r="C40">
-        <v>-0.02696466747140254</v>
+        <v>-0.03614033902534341</v>
       </c>
       <c r="D40">
-        <v>-0.03002195614392992</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>-0.03865658606169926</v>
+      </c>
+      <c r="E40">
+        <v>-0.04646858984801083</v>
+      </c>
+      <c r="F40">
+        <v>-0.1086658776231548</v>
+      </c>
+      <c r="G40">
+        <v>0.05003901658035564</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B41">
-        <v>0.01083198913991433</v>
+        <v>0.01856400770688525</v>
       </c>
       <c r="C41">
-        <v>-0.003672221206648229</v>
+        <v>-0.002839732081276896</v>
       </c>
       <c r="D41">
-        <v>0.004401990938477083</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>-0.01836695685836384</v>
+      </c>
+      <c r="E41">
+        <v>-0.02257146417187832</v>
+      </c>
+      <c r="F41">
+        <v>-0.08206416645405662</v>
+      </c>
+      <c r="G41">
+        <v>0.002701989617135372</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B42">
-        <v>0.005412377451385624</v>
+        <v>0.003098100542985916</v>
       </c>
       <c r="C42">
-        <v>-0.01767094650726871</v>
+        <v>-0.00915867517676019</v>
       </c>
       <c r="D42">
-        <v>-0.02170516743411924</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4">
+        <v>-0.006295279155527546</v>
+      </c>
+      <c r="E42">
+        <v>-0.01637725576941165</v>
+      </c>
+      <c r="F42">
+        <v>0.01836019568427361</v>
+      </c>
+      <c r="G42">
+        <v>0.009193436777161536</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B43">
-        <v>0.03208837062012522</v>
+        <v>0.03126070330560241</v>
       </c>
       <c r="C43">
-        <v>-0.0173949248368582</v>
+        <v>-0.01752264118473287</v>
       </c>
       <c r="D43">
-        <v>0.0007597343251865281</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>-0.03947261304337987</v>
+      </c>
+      <c r="E43">
+        <v>-0.01852931189107504</v>
+      </c>
+      <c r="F43">
+        <v>-0.1014118209530927</v>
+      </c>
+      <c r="G43">
+        <v>0.0251674231035959</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B44">
-        <v>0.02133555692717059</v>
+        <v>0.01563437764453481</v>
       </c>
       <c r="C44">
-        <v>-0.0538466864432746</v>
+        <v>-0.05239782398888754</v>
       </c>
       <c r="D44">
-        <v>-0.01070460238861641</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>-0.04347669709622092</v>
+      </c>
+      <c r="E44">
+        <v>-0.03606178968196291</v>
+      </c>
+      <c r="F44">
+        <v>-0.1081169367430329</v>
+      </c>
+      <c r="G44">
+        <v>-0.002237406284632907</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,52 +1726,88 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B46">
-        <v>0.0004640175659010189</v>
+        <v>0.008222058998198096</v>
       </c>
       <c r="C46">
-        <v>-0.0199917076721957</v>
+        <v>-0.02218529622801337</v>
       </c>
       <c r="D46">
-        <v>0.01280776290565164</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>-0.01324902509386387</v>
+      </c>
+      <c r="E46">
+        <v>-0.01865315641969104</v>
+      </c>
+      <c r="F46">
+        <v>-0.1061353826903106</v>
+      </c>
+      <c r="G46">
+        <v>-0.001924557358486201</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B47">
-        <v>0.07875550585600398</v>
+        <v>0.08773913114464241</v>
       </c>
       <c r="C47">
-        <v>-0.07108756870460091</v>
+        <v>-0.07717541772919569</v>
       </c>
       <c r="D47">
-        <v>0.006174420571859756</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>0.007230782114850788</v>
+      </c>
+      <c r="E47">
+        <v>-0.04399010078542911</v>
+      </c>
+      <c r="F47">
+        <v>-0.08804143971069672</v>
+      </c>
+      <c r="G47">
+        <v>0.04384593218298154</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B48">
-        <v>0.01806391928298519</v>
+        <v>0.0164547571634975</v>
       </c>
       <c r="C48">
-        <v>-0.01238561561246513</v>
+        <v>-0.0149066310109483</v>
       </c>
       <c r="D48">
-        <v>0.005496773479910505</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>-0.01770560017491452</v>
+      </c>
+      <c r="E48">
+        <v>-0.02815777225844981</v>
+      </c>
+      <c r="F48">
+        <v>-0.1045921643769019</v>
+      </c>
+      <c r="G48">
+        <v>0.006282771380177707</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1377,38 +1818,65 @@
       <c r="D49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:4">
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B50">
-        <v>0.08770345128362739</v>
+        <v>0.07354285565195376</v>
       </c>
       <c r="C50">
-        <v>-0.0677495997775816</v>
+        <v>-0.06800040635045407</v>
       </c>
       <c r="D50">
-        <v>0.02011787759443712</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>-0.001666976324879603</v>
+      </c>
+      <c r="E50">
+        <v>-0.03828565454041669</v>
+      </c>
+      <c r="F50">
+        <v>-0.08153234219505637</v>
+      </c>
+      <c r="G50">
+        <v>0.07355410717420788</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B51">
-        <v>0.01374162484393332</v>
+        <v>0.01071436514986857</v>
       </c>
       <c r="C51">
-        <v>-0.04630530336561678</v>
+        <v>-0.03356512841614263</v>
       </c>
       <c r="D51">
-        <v>-0.006175131704722794</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>-0.04717223584631776</v>
+      </c>
+      <c r="E51">
+        <v>-0.004104656166825159</v>
+      </c>
+      <c r="F51">
+        <v>-0.09308614623762763</v>
+      </c>
+      <c r="G51">
+        <v>-0.01647713559133041</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1419,136 +1887,226 @@
       <c r="D52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B53">
-        <v>0.09682228447444147</v>
+        <v>0.09164317980239044</v>
       </c>
       <c r="C53">
-        <v>-0.07384674557916819</v>
+        <v>-0.08638754421847107</v>
       </c>
       <c r="D53">
-        <v>0.03131303341680241</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>0.03365736612758215</v>
+      </c>
+      <c r="E53">
+        <v>-0.04756810847029245</v>
+      </c>
+      <c r="F53">
+        <v>-0.09198364939363078</v>
+      </c>
+      <c r="G53">
+        <v>0.05063168357352789</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B54">
-        <v>0.02979315111999971</v>
+        <v>0.03001091753571165</v>
       </c>
       <c r="C54">
-        <v>-0.01453842817134815</v>
+        <v>-0.02346148678856632</v>
       </c>
       <c r="D54">
-        <v>-0.002858902874707275</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>-0.03273547032705659</v>
+      </c>
+      <c r="E54">
+        <v>-0.01516623443377776</v>
+      </c>
+      <c r="F54">
+        <v>-0.103382390805063</v>
+      </c>
+      <c r="G54">
+        <v>0.003027423753838672</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B55">
-        <v>0.07530935948835427</v>
+        <v>0.08381430138505339</v>
       </c>
       <c r="C55">
-        <v>-0.06779559391771386</v>
+        <v>-0.06873038847455351</v>
       </c>
       <c r="D55">
-        <v>0.02947618680358319</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>0.04090521955514578</v>
+      </c>
+      <c r="E55">
+        <v>-0.04466854394077192</v>
+      </c>
+      <c r="F55">
+        <v>-0.06305925609909122</v>
+      </c>
+      <c r="G55">
+        <v>0.0434160308430363</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B56">
-        <v>0.1526903630386892</v>
+        <v>0.1454632613660068</v>
       </c>
       <c r="C56">
-        <v>-0.09037872229356765</v>
+        <v>-0.1023038702101892</v>
       </c>
       <c r="D56">
-        <v>0.02779267525304824</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>0.04238698115831652</v>
+      </c>
+      <c r="E56">
+        <v>-0.04944305140296252</v>
+      </c>
+      <c r="F56">
+        <v>-0.0564577720254858</v>
+      </c>
+      <c r="G56">
+        <v>0.05111747092819598</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B57">
-        <v>0.006295183736784258</v>
+        <v>0.00282961947477844</v>
       </c>
       <c r="C57">
-        <v>-0.0008300855020499207</v>
+        <v>-0.0003143882184430108</v>
       </c>
       <c r="D57">
-        <v>-0.02998039445274184</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4">
+        <v>-0.02116502607161361</v>
+      </c>
+      <c r="E57">
+        <v>-0.01170892264727507</v>
+      </c>
+      <c r="F57">
+        <v>-0.01099663257720433</v>
+      </c>
+      <c r="G57">
+        <v>0.0004558057686630927</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B58">
-        <v>0.06960321670036543</v>
+        <v>0.03888935337535764</v>
       </c>
       <c r="C58">
-        <v>-0.05116088745473247</v>
+        <v>-0.02768012674909571</v>
       </c>
       <c r="D58">
-        <v>-0.956272728657746</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>-0.6089280300264636</v>
+      </c>
+      <c r="E58">
+        <v>-0.6689793275791763</v>
+      </c>
+      <c r="F58">
+        <v>0.3546114966501595</v>
+      </c>
+      <c r="G58">
+        <v>-0.01540972187685619</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B59">
-        <v>0.1310816318293924</v>
+        <v>0.1451787321529902</v>
       </c>
       <c r="C59">
-        <v>0.2062189252272285</v>
+        <v>0.1937871509216314</v>
       </c>
       <c r="D59">
-        <v>-0.01743146319111221</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>-0.02634606605344656</v>
+      </c>
+      <c r="E59">
+        <v>-0.01182334090926904</v>
+      </c>
+      <c r="F59">
+        <v>-0.02573858368459394</v>
+      </c>
+      <c r="G59">
+        <v>-0.03025763538301794</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B60">
-        <v>0.3160490681230369</v>
+        <v>0.2851358379588214</v>
       </c>
       <c r="C60">
-        <v>-0.07951295031472641</v>
+        <v>-0.09098528764917084</v>
       </c>
       <c r="D60">
-        <v>-0.006436607798626079</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>-0.1769009899908037</v>
+      </c>
+      <c r="E60">
+        <v>0.2913754445351812</v>
+      </c>
+      <c r="F60">
+        <v>0.1427722078702869</v>
+      </c>
+      <c r="G60">
+        <v>0.05049930993431712</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B61">
-        <v>0.03799158188303675</v>
+        <v>0.04096741165451973</v>
       </c>
       <c r="C61">
-        <v>-0.05982446707545638</v>
+        <v>-0.05907625894812984</v>
       </c>
       <c r="D61">
-        <v>-0.009449403260376445</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>-0.04427880188697077</v>
+      </c>
+      <c r="E61">
+        <v>-0.00463467779431465</v>
+      </c>
+      <c r="F61">
+        <v>-0.087818104713482</v>
+      </c>
+      <c r="G61">
+        <v>0.01088785958281149</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1559,108 +2117,180 @@
       <c r="D62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:4">
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B63">
-        <v>0.01621323412785689</v>
+        <v>0.016460494825994</v>
       </c>
       <c r="C63">
-        <v>-0.03180928871883623</v>
+        <v>-0.02962401688383358</v>
       </c>
       <c r="D63">
-        <v>0.00826876599713704</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>-0.01938201047415433</v>
+      </c>
+      <c r="E63">
+        <v>-0.02059249386103718</v>
+      </c>
+      <c r="F63">
+        <v>-0.08490840306317805</v>
+      </c>
+      <c r="G63">
+        <v>0.02711436888103605</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B64">
-        <v>0.05004004433835935</v>
+        <v>0.05414665038184816</v>
       </c>
       <c r="C64">
-        <v>-0.02599689997418013</v>
+        <v>-0.04767752898375016</v>
       </c>
       <c r="D64">
-        <v>0.01260004469689577</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>-0.01123818401619771</v>
+      </c>
+      <c r="E64">
+        <v>-0.005561971046591242</v>
+      </c>
+      <c r="F64">
+        <v>-0.09552298533427854</v>
+      </c>
+      <c r="G64">
+        <v>2.317642097040297e-05</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B65">
-        <v>0.08960155612827331</v>
+        <v>0.06904504893315129</v>
       </c>
       <c r="C65">
-        <v>-0.0500484424966911</v>
+        <v>-0.03773787590717591</v>
       </c>
       <c r="D65">
-        <v>-0.01551997330547172</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>-0.07858518589793588</v>
+      </c>
+      <c r="E65">
+        <v>-0.01090159012372862</v>
+      </c>
+      <c r="F65">
+        <v>-0.03861403466535265</v>
+      </c>
+      <c r="G65">
+        <v>-0.0003026760313843662</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B66">
-        <v>0.06664909253299642</v>
+        <v>0.052163404849315</v>
       </c>
       <c r="C66">
-        <v>-0.1066625044862134</v>
+        <v>-0.08942520395909025</v>
       </c>
       <c r="D66">
-        <v>-0.01290938736760255</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>-0.07251130257929354</v>
+      </c>
+      <c r="E66">
+        <v>0.004571881134243294</v>
+      </c>
+      <c r="F66">
+        <v>-0.1008906764199995</v>
+      </c>
+      <c r="G66">
+        <v>0.0003235005572212695</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B67">
-        <v>0.06009051816511809</v>
+        <v>0.04953936779781478</v>
       </c>
       <c r="C67">
-        <v>-0.02913804561625905</v>
+        <v>-0.02821460822433683</v>
       </c>
       <c r="D67">
-        <v>0.01101563061103543</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>-0.01171156484720541</v>
+      </c>
+      <c r="E67">
+        <v>-0.008848858131160244</v>
+      </c>
+      <c r="F67">
+        <v>-0.06335505432771291</v>
+      </c>
+      <c r="G67">
+        <v>0.01198081518100916</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B68">
-        <v>0.1157629698016715</v>
+        <v>0.1514797305726232</v>
       </c>
       <c r="C68">
-        <v>0.2932710960292899</v>
+        <v>0.2630994864353631</v>
       </c>
       <c r="D68">
-        <v>-0.01321905304002261</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>0.01852133736728323</v>
+      </c>
+      <c r="E68">
+        <v>-0.03960937234635615</v>
+      </c>
+      <c r="F68">
+        <v>-0.02237765512340209</v>
+      </c>
+      <c r="G68">
+        <v>0.006262603021625043</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B69">
-        <v>0.08784195406315347</v>
+        <v>0.08741715010029533</v>
       </c>
       <c r="C69">
-        <v>-0.06757611599066178</v>
+        <v>-0.08206843065161108</v>
       </c>
       <c r="D69">
-        <v>0.03571042075963583</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>0.007994690885556734</v>
+      </c>
+      <c r="E69">
+        <v>-0.01618579348455764</v>
+      </c>
+      <c r="F69">
+        <v>-0.09813920989922485</v>
+      </c>
+      <c r="G69">
+        <v>0.01845247746702987</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1671,192 +2301,318 @@
       <c r="D70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:4">
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B71">
-        <v>0.1172467462525786</v>
+        <v>0.1395296718806094</v>
       </c>
       <c r="C71">
-        <v>0.2439781984677915</v>
+        <v>0.2370204520074529</v>
       </c>
       <c r="D71">
-        <v>-0.02121818786671353</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>-0.01475772458052247</v>
+      </c>
+      <c r="E71">
+        <v>-0.0457389031852451</v>
+      </c>
+      <c r="F71">
+        <v>-0.0654585941895144</v>
+      </c>
+      <c r="G71">
+        <v>0.02775368551424711</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B72">
-        <v>0.08022077472343445</v>
+        <v>0.08939180383211226</v>
       </c>
       <c r="C72">
-        <v>-0.05094795690519795</v>
+        <v>-0.05531068231018455</v>
       </c>
       <c r="D72">
-        <v>0.0396822362709499</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>-0.009683239708357539</v>
+      </c>
+      <c r="E72">
+        <v>0.01254875219648933</v>
+      </c>
+      <c r="F72">
+        <v>-0.08303751224524512</v>
+      </c>
+      <c r="G72">
+        <v>0.02140326197235484</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B73">
-        <v>0.442612293248817</v>
+        <v>0.3526432696190999</v>
       </c>
       <c r="C73">
-        <v>-0.06253380869455041</v>
+        <v>-0.07100353957519717</v>
       </c>
       <c r="D73">
-        <v>-0.05729198767086805</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>-0.368463526884921</v>
+      </c>
+      <c r="E73">
+        <v>0.5092044333024277</v>
+      </c>
+      <c r="F73">
+        <v>0.3267133389794924</v>
+      </c>
+      <c r="G73">
+        <v>0.1076957728626153</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B74">
-        <v>0.120241464201843</v>
+        <v>0.1128318940974727</v>
       </c>
       <c r="C74">
-        <v>-0.1150588644939427</v>
+        <v>-0.101375287717471</v>
       </c>
       <c r="D74">
-        <v>0.02906383220230875</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>0.01934330864176742</v>
+      </c>
+      <c r="E74">
+        <v>-0.06407446578140204</v>
+      </c>
+      <c r="F74">
+        <v>-0.07354248816014468</v>
+      </c>
+      <c r="G74">
+        <v>0.06779709239544085</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B75">
-        <v>0.2639731953958551</v>
+        <v>0.2559005615542262</v>
       </c>
       <c r="C75">
-        <v>-0.1207872171878662</v>
+        <v>-0.1408575345049288</v>
       </c>
       <c r="D75">
-        <v>0.05412595804007057</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>0.109718925644754</v>
+      </c>
+      <c r="E75">
+        <v>-0.1050910258480613</v>
+      </c>
+      <c r="F75">
+        <v>-0.02538747248452393</v>
+      </c>
+      <c r="G75">
+        <v>0.06501889859006044</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B76">
-        <v>0.1201597176995515</v>
+        <v>0.1285768910648002</v>
       </c>
       <c r="C76">
-        <v>-0.1043570717871253</v>
+        <v>-0.1058536334444862</v>
       </c>
       <c r="D76">
-        <v>0.03979087426233286</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>0.04977823338377699</v>
+      </c>
+      <c r="E76">
+        <v>-0.07571580248653771</v>
+      </c>
+      <c r="F76">
+        <v>-0.07477296236639393</v>
+      </c>
+      <c r="G76">
+        <v>0.0531402650494945</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B77">
-        <v>0.07486227209010897</v>
+        <v>0.06663697028734426</v>
       </c>
       <c r="C77">
-        <v>-0.05602737425867439</v>
+        <v>-0.06218829954924442</v>
       </c>
       <c r="D77">
-        <v>-0.03666509860675166</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>-0.05998039085066059</v>
+      </c>
+      <c r="E77">
+        <v>-0.0448376898945459</v>
+      </c>
+      <c r="F77">
+        <v>-0.1145625926134896</v>
+      </c>
+      <c r="G77">
+        <v>-0.1292596665222509</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B78">
-        <v>0.04524402051060467</v>
+        <v>0.04206462459231038</v>
       </c>
       <c r="C78">
-        <v>-0.04355525302229858</v>
+        <v>-0.05260975599263096</v>
       </c>
       <c r="D78">
-        <v>-0.0060944185376522</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>-0.06274179302125583</v>
+      </c>
+      <c r="E78">
+        <v>0.01247976025559886</v>
+      </c>
+      <c r="F78">
+        <v>-0.103779725081493</v>
+      </c>
+      <c r="G78">
+        <v>0.004517600950980665</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B79">
-        <v>0</v>
+        <v>0.01141788329658681</v>
       </c>
       <c r="C79">
-        <v>0</v>
+        <v>-0.03390413678311525</v>
       </c>
       <c r="D79">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>0.03942802577473314</v>
+      </c>
+      <c r="E79">
+        <v>-0.03938900474036323</v>
+      </c>
+      <c r="F79">
+        <v>-0.02374658090679514</v>
+      </c>
+      <c r="G79">
+        <v>0.03778702994519868</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B80">
-        <v>0.0513159769291968</v>
+        <v>0.03902443475433333</v>
       </c>
       <c r="C80">
-        <v>-0.04977571620684515</v>
+        <v>-0.04411611198460412</v>
       </c>
       <c r="D80">
-        <v>-0.02753200989696713</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>-0.04525426968771468</v>
+      </c>
+      <c r="E80">
+        <v>-0.00371725494921347</v>
+      </c>
+      <c r="F80">
+        <v>-0.04066056841393649</v>
+      </c>
+      <c r="G80">
+        <v>-0.04334678968081031</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B81">
-        <v>0.1393867906208708</v>
+        <v>0.1414630221922742</v>
       </c>
       <c r="C81">
-        <v>-0.07981187323304807</v>
+        <v>-0.09593095842262661</v>
       </c>
       <c r="D81">
-        <v>0.03084947847361419</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>0.07885771992248612</v>
+      </c>
+      <c r="E81">
+        <v>-0.09082806540253374</v>
+      </c>
+      <c r="F81">
+        <v>-0.03534395788911922</v>
+      </c>
+      <c r="G81">
+        <v>0.05375658415545297</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B82">
-        <v>0.07182191454142939</v>
+        <v>0.191735189795305</v>
       </c>
       <c r="C82">
-        <v>-0.04380663919737968</v>
+        <v>-0.1365690875220908</v>
       </c>
       <c r="D82">
-        <v>0.02547116525785345</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>0.2161329300870389</v>
+      </c>
+      <c r="E82">
+        <v>-0.03937221955479125</v>
+      </c>
+      <c r="F82">
+        <v>-0.06292105188150787</v>
+      </c>
+      <c r="G82">
+        <v>0.02052174382465887</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B83">
-        <v>0.02783131431703351</v>
+        <v>0.02722988648004457</v>
       </c>
       <c r="C83">
-        <v>-0.01911055154901332</v>
+        <v>-0.03552315883118307</v>
       </c>
       <c r="D83">
-        <v>-0.01885851869264739</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>-0.03445592078837055</v>
+      </c>
+      <c r="E83">
+        <v>0.002118279799083755</v>
+      </c>
+      <c r="F83">
+        <v>-0.05151794872271224</v>
+      </c>
+      <c r="G83">
+        <v>-0.02542189780793858</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -1867,164 +2623,272 @@
       <c r="D84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:4">
+      <c r="E84">
+        <v>0</v>
+      </c>
+      <c r="F84">
+        <v>0</v>
+      </c>
+      <c r="G84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B85">
-        <v>0.2425862592282038</v>
+        <v>0.2092660061865016</v>
       </c>
       <c r="C85">
-        <v>-0.1127395109031838</v>
+        <v>-0.1228725498562015</v>
       </c>
       <c r="D85">
-        <v>0.1292203434169938</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>0.1064003362864494</v>
+      </c>
+      <c r="E85">
+        <v>-0.02767046772367599</v>
+      </c>
+      <c r="F85">
+        <v>0.01818899163579312</v>
+      </c>
+      <c r="G85">
+        <v>0.1107186700918555</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B86">
-        <v>0.009883311689529457</v>
+        <v>0.01243588855775008</v>
       </c>
       <c r="C86">
-        <v>-0.02738478923345534</v>
+        <v>-0.03232321232164423</v>
       </c>
       <c r="D86">
-        <v>-0.03306549293275708</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>-0.07473301356060148</v>
+      </c>
+      <c r="E86">
+        <v>-0.0172352573982545</v>
+      </c>
+      <c r="F86">
+        <v>-0.1512415315626117</v>
+      </c>
+      <c r="G86">
+        <v>-0.01097357635203158</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B87">
-        <v>0.01329592492251182</v>
+        <v>0.02027583075785519</v>
       </c>
       <c r="C87">
-        <v>-0.02492630974409847</v>
+        <v>-0.01823620314470909</v>
       </c>
       <c r="D87">
-        <v>-0.0841124600563759</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>-0.09796105966792551</v>
+      </c>
+      <c r="E87">
+        <v>-0.05811886864117664</v>
+      </c>
+      <c r="F87">
+        <v>-0.1076287764470592</v>
+      </c>
+      <c r="G87">
+        <v>-0.0356469357927692</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B88">
-        <v>0.1019185261143416</v>
+        <v>0.08955260351176737</v>
       </c>
       <c r="C88">
-        <v>-0.0743625292937664</v>
+        <v>-0.06186545740171773</v>
       </c>
       <c r="D88">
-        <v>0.0190027133003129</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>-0.01297713898674985</v>
+      </c>
+      <c r="E88">
+        <v>-0.01794159639844171</v>
+      </c>
+      <c r="F88">
+        <v>-0.07589524177111304</v>
+      </c>
+      <c r="G88">
+        <v>-0.03160441727906609</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B89">
-        <v>0.1860199010705991</v>
+        <v>0.2150092450221884</v>
       </c>
       <c r="C89">
-        <v>0.3775861831356723</v>
+        <v>0.3788798806846904</v>
       </c>
       <c r="D89">
-        <v>0.01776764741465305</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>0.02047014285925596</v>
+      </c>
+      <c r="E89">
+        <v>-0.02529925538695436</v>
+      </c>
+      <c r="F89">
+        <v>-0.09239055925984394</v>
+      </c>
+      <c r="G89">
+        <v>-0.07320720209351761</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B90">
-        <v>0.1728202755735102</v>
+        <v>0.199105112432518</v>
       </c>
       <c r="C90">
-        <v>0.3538517105867935</v>
+        <v>0.3230892270880955</v>
       </c>
       <c r="D90">
-        <v>-0.002817372632141255</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>0.01927665659616387</v>
+      </c>
+      <c r="E90">
+        <v>-0.05113103740165152</v>
+      </c>
+      <c r="F90">
+        <v>-0.05727865481209186</v>
+      </c>
+      <c r="G90">
+        <v>-0.01481594458244143</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B91">
-        <v>0.2035518032487331</v>
+        <v>0.1932859061287109</v>
       </c>
       <c r="C91">
-        <v>-0.1116307713873853</v>
+        <v>-0.1377218468187375</v>
       </c>
       <c r="D91">
-        <v>0.05077448272865304</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>0.09244679246404644</v>
+      </c>
+      <c r="E91">
+        <v>-0.08769058182966791</v>
+      </c>
+      <c r="F91">
+        <v>-0.0496210572145233</v>
+      </c>
+      <c r="G91">
+        <v>0.05322998368722349</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B92">
-        <v>0.1668333868950452</v>
+        <v>0.1805637659376121</v>
       </c>
       <c r="C92">
-        <v>0.2810682209298687</v>
+        <v>0.2804382669830475</v>
       </c>
       <c r="D92">
-        <v>0.002265573134946608</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>0.003118560178199023</v>
+      </c>
+      <c r="E92">
+        <v>-0.07482242876632483</v>
+      </c>
+      <c r="F92">
+        <v>-0.07613362796857803</v>
+      </c>
+      <c r="G92">
+        <v>-0.01652764581514348</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B93">
-        <v>0.19154655065934</v>
+        <v>0.2211695646228875</v>
       </c>
       <c r="C93">
-        <v>0.3421740202064567</v>
+        <v>0.3234291132907641</v>
       </c>
       <c r="D93">
-        <v>-3.578270549247298e-05</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>0.006453042869986232</v>
+      </c>
+      <c r="E93">
+        <v>-0.03968588743026025</v>
+      </c>
+      <c r="F93">
+        <v>-0.06100761007959852</v>
+      </c>
+      <c r="G93">
+        <v>0.02865389527785886</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B94">
-        <v>0.2840237815251055</v>
+        <v>0.3440315138553667</v>
       </c>
       <c r="C94">
-        <v>-0.1478291515975768</v>
+        <v>-0.1931569699214999</v>
       </c>
       <c r="D94">
-        <v>0.122393066589563</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>0.4393253879280125</v>
+      </c>
+      <c r="E94">
+        <v>-0.2567747412909411</v>
+      </c>
+      <c r="F94">
+        <v>0.4275135211976089</v>
+      </c>
+      <c r="G94">
+        <v>-0.2565822709875448</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B95">
-        <v>0.09231105127188399</v>
+        <v>0.0843553928180886</v>
       </c>
       <c r="C95">
-        <v>-0.07481924302879314</v>
+        <v>-0.07497034501366355</v>
       </c>
       <c r="D95">
-        <v>-0.06472264725423016</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>-0.1383500616412762</v>
+      </c>
+      <c r="E95">
+        <v>0.1340385078863457</v>
+      </c>
+      <c r="F95">
+        <v>-0.1182004448316814</v>
+      </c>
+      <c r="G95">
+        <v>-0.9013130376126336</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2035,10 +2899,19 @@
       <c r="D96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:4">
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2049,24 +2922,42 @@
       <c r="D97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:4">
+      <c r="E97">
+        <v>0</v>
+      </c>
+      <c r="F97">
+        <v>0</v>
+      </c>
+      <c r="G97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B98">
-        <v>0.2079491845974294</v>
+        <v>0.1909519195589282</v>
       </c>
       <c r="C98">
-        <v>-0.01984521558137286</v>
+        <v>-0.0355347246906911</v>
       </c>
       <c r="D98">
-        <v>-0.04510793605194949</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>-0.156776256594468</v>
+      </c>
+      <c r="E98">
+        <v>0.1681321089389909</v>
+      </c>
+      <c r="F98">
+        <v>0.05498872755097915</v>
+      </c>
+      <c r="G98">
+        <v>0.1021445269497917</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2077,10 +2968,19 @@
       <c r="D99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:4">
+      <c r="E99">
+        <v>0</v>
+      </c>
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2091,38 +2991,65 @@
       <c r="D100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:4">
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B101">
-        <v>0.0116615564342291</v>
+        <v>0.007134116285899367</v>
       </c>
       <c r="C101">
-        <v>-0.02557878218102302</v>
+        <v>-0.02427824717368073</v>
       </c>
       <c r="D101">
-        <v>0.01328120991441154</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>-0.01811526664960189</v>
+      </c>
+      <c r="E101">
+        <v>-0.0140028299778431</v>
+      </c>
+      <c r="F101">
+        <v>-0.09177347095436163</v>
+      </c>
+      <c r="G101">
+        <v>0.003189005457520958</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B102">
-        <v>0.1234866955875035</v>
+        <v>0.1243920761653445</v>
       </c>
       <c r="C102">
-        <v>-0.07318691170102748</v>
+        <v>-0.09777952655325357</v>
       </c>
       <c r="D102">
-        <v>0.02774784684072381</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4">
+        <v>0.04514589272007228</v>
+      </c>
+      <c r="E102">
+        <v>-0.003927270081657329</v>
+      </c>
+      <c r="F102">
+        <v>-0.02812084899281018</v>
+      </c>
+      <c r="G102">
+        <v>0.01496948556141088</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +3060,19 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +3081,15 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
         <v>0</v>
       </c>
     </row>
